--- a/Designer/Export/Output/Rule/R_TestComposeKey.xlsx
+++ b/Designer/Export/Output/Rule/R_TestComposeKey.xlsx
@@ -103,7 +103,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="dc8b25e6-2212-4d90-a334-35750fa4cd0c" xfId="1"/>
+    <cellStyle name="60dfdfb4-17ef-474d-aa63-f52d48741643" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
